--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243793.9357563916</v>
+        <v>239642.2202875546</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33939170.01824509</v>
+        <v>33939170.01824508</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6675952.437493107</v>
+        <v>6675952.437493112</v>
       </c>
     </row>
     <row r="9">
@@ -661,70 +661,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>3.262548922260277</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.262548922260277</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.262548922260277</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>2.873653090726851</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.262548922260275</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.262548922260275</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.262548922260275</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="D3" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.262548922260275</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
     </row>
     <row r="5">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>36.39025468426208</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>41.31500304752735</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>67.27314779414245</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>34.27212038159844</v>
+        <v>49.2231591680811</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.21147813193054</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>19.04271044515019</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="V9" t="n">
-        <v>59.25418857708067</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="W9" t="n">
-        <v>67.27314779414245</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>67.27314779414245</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.27314779414245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.27314779414245</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>42.37059632376878</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>67.27314779414245</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>67.27314779414245</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.37059632376869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.9043102021001</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>394.496989194769</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>109.5569607756762</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>79.8029445384564</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>204.8426041147484</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>272.9631198796894</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623972</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>147.9298082149603</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.30026393667286</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>105.8766303584835</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>356.7091536359954</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>74.42811009354853</v>
       </c>
       <c r="E19" t="n">
-        <v>85.1488807209182</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>336.8707548260832</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>160.8890601609781</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>49.34995949258661</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>281.6587179357154</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>333.3838141281618</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>49.34995949258617</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>69.92179809548971</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>136.0829573912428</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>127.3873593352177</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E28" t="n">
-        <v>53.19117033386421</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,16 +2800,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>149.6157531058527</v>
+        <v>255.9508505586065</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>60.07073011995545</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>55.96684102370116</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3031,19 +3031,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5540470185019</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>226.1576976621632</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>205.5539892783825</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>186.0325948128212</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>124.9554984777222</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>7.722803593221053</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3556,7 +3556,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>128.3640563204304</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>321.9370827829819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>94.73004632400239</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>155.9421478677844</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>226.1576976621631</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>12.5206924101752</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>157.148991073044</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.19117033386413</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>385.4242013940192</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>328.5107569703947</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.77350497189194</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>23.30082879511179</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.0501956890411</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="C2" t="n">
-        <v>10.14751579941802</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="D2" t="n">
-        <v>6.852011837538955</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E2" t="n">
-        <v>3.556507875659888</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G2" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H2" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I2" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J2" t="n">
         <v>1.160310701713749</v>
@@ -4336,46 +4336,46 @@
         <v>2.50813845558963</v>
       </c>
       <c r="L2" t="n">
-        <v>4.180237967355345</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M2" t="n">
-        <v>6.040770853278582</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N2" t="n">
-        <v>7.931409106423306</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O2" t="n">
-        <v>9.716685196678936</v>
+        <v>9.716685196678942</v>
       </c>
       <c r="P2" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.38460615143387</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R2" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S2" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T2" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U2" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V2" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W2" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X2" t="n">
-        <v>13.0501956890411</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.0501956890411</v>
+        <v>10.14751579941803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.852011837538955</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="C3" t="n">
-        <v>6.852011837538955</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="D3" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E3" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.261003913780822</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="G3" t="n">
-        <v>0.261003913780822</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H3" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4561956203818615</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J3" t="n">
-        <v>2.171268740983666</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K3" t="n">
-        <v>5.401192174021339</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L3" t="n">
-        <v>6.632143184885601</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M3" t="n">
-        <v>8.068604954355925</v>
+        <v>4.574690899292686</v>
       </c>
       <c r="N3" t="n">
-        <v>9.543085592538732</v>
+        <v>6.049171537475494</v>
       </c>
       <c r="O3" t="n">
-        <v>10.89194731330135</v>
+        <v>7.398033258238116</v>
       </c>
       <c r="P3" t="n">
-        <v>11.97452776196327</v>
+        <v>8.480613706900035</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.69820412233482</v>
+        <v>9.820272256003435</v>
       </c>
       <c r="R3" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S3" t="n">
-        <v>13.0501956890411</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="T3" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="U3" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="V3" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="W3" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="X3" t="n">
-        <v>13.0501956890411</v>
+        <v>6.459187765282972</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.14751579941802</v>
+        <v>6.459187765282972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.556507875659888</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="C4" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="D4" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E4" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="F4" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="G4" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H4" t="n">
-        <v>3.556507875659888</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="I4" t="n">
-        <v>0.261003913780822</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J4" t="n">
-        <v>3.490927346818494</v>
+        <v>3.490927346818497</v>
       </c>
       <c r="K4" t="n">
-        <v>4.043130126599838</v>
+        <v>6.571479234956531</v>
       </c>
       <c r="L4" t="n">
-        <v>4.749759567956964</v>
+        <v>7.278108676313658</v>
       </c>
       <c r="M4" t="n">
-        <v>5.494801237109522</v>
+        <v>8.023150345466217</v>
       </c>
       <c r="N4" t="n">
-        <v>6.222127480619644</v>
+        <v>8.750476588976339</v>
       </c>
       <c r="O4" t="n">
-        <v>6.893930987665052</v>
+        <v>9.422280096021748</v>
       </c>
       <c r="P4" t="n">
-        <v>9.820272256003429</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0501956890411</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R4" t="n">
-        <v>9.754691727162037</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S4" t="n">
-        <v>9.754691727162037</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T4" t="n">
-        <v>6.45918776528297</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U4" t="n">
-        <v>3.556507875659888</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V4" t="n">
-        <v>3.556507875659888</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W4" t="n">
-        <v>3.556507875659888</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X4" t="n">
-        <v>3.556507875659888</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.556507875659888</v>
+        <v>6.852011837538958</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4570,19 +4570,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
         <v>142.9948879228476</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="C6" t="n">
         <v>128.5021791757032</v>
-      </c>
-      <c r="C6" t="n">
-        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="E6" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
         <v>45.03752655443588</v>
@@ -4643,31 +4643,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>31.77020107089877</v>
+        <v>23.6675840455557</v>
       </c>
       <c r="J6" t="n">
-        <v>38.35962772912429</v>
+        <v>30.25701070378122</v>
       </c>
       <c r="K6" t="n">
-        <v>49.62200743646791</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L6" t="n">
-        <v>64.76566681697273</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M6" t="n">
-        <v>82.43760303375414</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N6" t="n">
-        <v>100.5772628177064</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O6" t="n">
-        <v>117.1715076498293</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P6" t="n">
-        <v>130.4898521020749</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.3928126638406</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.76985286506957</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="C7" t="n">
-        <v>86.76985286506957</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="D7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K7" t="n">
-        <v>85.10890627790634</v>
+        <v>48.34104778508073</v>
       </c>
       <c r="L7" t="n">
-        <v>126.0107592949584</v>
+        <v>89.24290080213279</v>
       </c>
       <c r="M7" t="n">
-        <v>136.0791245210935</v>
+        <v>130.1447538191849</v>
       </c>
       <c r="N7" t="n">
         <v>145.026987427909</v>
@@ -4752,25 +4752,25 @@
         <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>86.76985286506957</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>86.76985286506957</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V7" t="n">
-        <v>86.76985286506957</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="W7" t="n">
-        <v>86.76985286506957</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="X7" t="n">
-        <v>86.76985286506957</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.76985286506957</v>
+        <v>21.3277230215631</v>
       </c>
     </row>
     <row r="8">
@@ -4789,61 +4789,61 @@
         <v>58.94321817522037</v>
       </c>
       <c r="E8" t="n">
-        <v>29.2088773739196</v>
+        <v>29.20887737391961</v>
       </c>
       <c r="F8" t="n">
-        <v>5.381851823531396</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="G8" t="n">
-        <v>5.381851823531396</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="H8" t="n">
-        <v>5.381851823531396</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="I8" t="n">
         <v>13.14838421658254</v>
       </c>
       <c r="J8" t="n">
-        <v>31.14579693006435</v>
+        <v>31.14579693006437</v>
       </c>
       <c r="K8" t="n">
-        <v>58.11925323961307</v>
+        <v>58.11925323961314</v>
       </c>
       <c r="L8" t="n">
-        <v>91.58221094777113</v>
+        <v>91.58221094777124</v>
       </c>
       <c r="M8" t="n">
-        <v>128.8161990197741</v>
+        <v>128.8161990197743</v>
       </c>
       <c r="N8" t="n">
-        <v>166.6526719457181</v>
+        <v>166.6526719457184</v>
       </c>
       <c r="O8" t="n">
-        <v>202.3805804136326</v>
+        <v>202.3805804136329</v>
       </c>
       <c r="P8" t="n">
-        <v>232.8735236966215</v>
+        <v>232.8735236966218</v>
       </c>
       <c r="Q8" t="n">
-        <v>255.7724541923638</v>
+        <v>255.7724541923641</v>
       </c>
       <c r="R8" t="n">
-        <v>269.0925911765698</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="S8" t="n">
-        <v>201.1399166370319</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="T8" t="n">
-        <v>201.1399166370319</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="U8" t="n">
-        <v>201.1399166370319</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="V8" t="n">
-        <v>201.1399166370319</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="W8" t="n">
-        <v>166.5216132212759</v>
+        <v>219.3722283805286</v>
       </c>
       <c r="X8" t="n">
         <v>151.4195538409907</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="C9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="D9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="E9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="F9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="G9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="H9" t="n">
-        <v>5.381851823531396</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="I9" t="n">
-        <v>35.35180674354552</v>
+        <v>27.4205882452178</v>
       </c>
       <c r="J9" t="n">
-        <v>46.07094246107508</v>
+        <v>38.13972396274738</v>
       </c>
       <c r="K9" t="n">
-        <v>64.39165272115056</v>
+        <v>56.46043422282288</v>
       </c>
       <c r="L9" t="n">
-        <v>89.02610858189524</v>
+        <v>81.09489008356759</v>
       </c>
       <c r="M9" t="n">
-        <v>117.7733566391666</v>
+        <v>109.842138140839</v>
       </c>
       <c r="N9" t="n">
-        <v>147.2814588124077</v>
+        <v>139.3502403140801</v>
       </c>
       <c r="O9" t="n">
-        <v>174.2756074252309</v>
+        <v>166.3443889269034</v>
       </c>
       <c r="P9" t="n">
-        <v>195.9407915332019</v>
+        <v>188.0095730348744</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.4233933586966</v>
+        <v>202.492174860369</v>
       </c>
       <c r="R9" t="n">
-        <v>269.0925911765698</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="S9" t="n">
-        <v>269.0925911765698</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="T9" t="n">
-        <v>269.0925911765698</v>
+        <v>249.8575301208629</v>
       </c>
       <c r="U9" t="n">
-        <v>269.0925911765698</v>
+        <v>181.9048555813249</v>
       </c>
       <c r="V9" t="n">
-        <v>209.2398754421449</v>
+        <v>113.952181041787</v>
       </c>
       <c r="W9" t="n">
-        <v>141.287200902607</v>
+        <v>113.952181041787</v>
       </c>
       <c r="X9" t="n">
-        <v>73.33452636306922</v>
+        <v>45.99950650224912</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.381851823531396</v>
+        <v>45.99950650224912</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.33452636306922</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="C10" t="n">
-        <v>73.33452636306922</v>
+        <v>184.0857830478282</v>
       </c>
       <c r="D10" t="n">
-        <v>73.33452636306922</v>
+        <v>116.1331085082903</v>
       </c>
       <c r="E10" t="n">
-        <v>73.33452636306922</v>
+        <v>48.1804339687524</v>
       </c>
       <c r="F10" t="n">
-        <v>73.33452636306922</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="G10" t="n">
-        <v>73.33452636306922</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="H10" t="n">
-        <v>73.33452636306922</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="I10" t="n">
-        <v>5.381851823531396</v>
+        <v>5.381851823531402</v>
       </c>
       <c r="J10" t="n">
-        <v>71.98226813973241</v>
+        <v>12.10669309714848</v>
       </c>
       <c r="K10" t="n">
-        <v>133.9363222366181</v>
+        <v>23.15767309931207</v>
       </c>
       <c r="L10" t="n">
-        <v>148.0777719201379</v>
+        <v>37.2991227828319</v>
       </c>
       <c r="M10" t="n">
-        <v>162.9879478338551</v>
+        <v>52.20929869654918</v>
       </c>
       <c r="N10" t="n">
-        <v>177.543593090226</v>
+        <v>69.29134222796682</v>
       </c>
       <c r="O10" t="n">
-        <v>190.988087383938</v>
+        <v>135.8917585441679</v>
       </c>
       <c r="P10" t="n">
-        <v>202.4921748603687</v>
+        <v>202.492174860369</v>
       </c>
       <c r="Q10" t="n">
-        <v>269.0925911765698</v>
+        <v>269.0925911765701</v>
       </c>
       <c r="R10" t="n">
-        <v>252.0384575873658</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="S10" t="n">
-        <v>252.0384575873658</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="T10" t="n">
-        <v>252.0384575873658</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="U10" t="n">
-        <v>184.0857830478279</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="V10" t="n">
-        <v>184.0857830478279</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0857830478279</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0857830478279</v>
+        <v>252.0384575873661</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.287200902607</v>
+        <v>252.0384575873661</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.20655154895474</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1526.86868437219</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>1122.013229783223</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X11" t="n">
-        <v>702.8707663625338</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y11" t="n">
-        <v>294.5846426621872</v>
+        <v>1346.991198798029</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030329</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
         <v>335.7952991210682</v>
@@ -5135,10 +5135,10 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.196554659879</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C13" t="n">
-        <v>856.6348431431041</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D13" t="n">
-        <v>690.7568503446269</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1019.751453776091</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1160.879221014856</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1288.378132818745</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221574</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>1448.434844064758</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y13" t="n">
-        <v>1221.015173378866</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1184.569049092249</v>
+        <v>254.1182728769834</v>
       </c>
       <c r="C14" t="n">
-        <v>1184.569049092249</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D14" t="n">
-        <v>1184.569049092249</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E14" t="n">
-        <v>750.7943042505444</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F14" t="n">
-        <v>322.9268746597522</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X14" t="n">
-        <v>1592.855172792596</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y14" t="n">
-        <v>1184.569049092249</v>
+        <v>254.1182728769834</v>
       </c>
     </row>
     <row r="15">
@@ -5348,25 +5348,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>320.0013704257346</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M16" t="n">
-        <v>1690.512214359095</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150537</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.124845221574</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.098440807865</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.706686141278</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>446.7092428694776</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435806</v>
@@ -5521,46 +5521,46 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U17" t="n">
-        <v>2041.610234645654</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V17" t="n">
-        <v>1678.99328457948</v>
+        <v>2000.015301047741</v>
       </c>
       <c r="W17" t="n">
-        <v>1274.137829990514</v>
+        <v>2000.015301047741</v>
       </c>
       <c r="X17" t="n">
-        <v>854.9953665698242</v>
+        <v>1580.872837627051</v>
       </c>
       <c r="Y17" t="n">
-        <v>446.7092428694776</v>
+        <v>1580.872837627051</v>
       </c>
     </row>
     <row r="18">
@@ -5573,37 +5573,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741246</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016839</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199987</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O19" t="n">
-        <v>2104.736723555076</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
@@ -5709,16 +5709,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>316.9281030050443</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>316.9281030050443</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5767,37 +5767,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V20" t="n">
-        <v>1889.485634438363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W20" t="n">
-        <v>1484.630179849397</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X20" t="n">
-        <v>1065.487716428707</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y20" t="n">
-        <v>657.2015927283607</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5810,37 +5810,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>717.0469809559636</v>
       </c>
       <c r="C22" t="n">
-        <v>443.520053268367</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="D22" t="n">
-        <v>443.520053268367</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E22" t="n">
-        <v>273.7620495191042</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>97.05499548086041</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092376</v>
       </c>
       <c r="M22" t="n">
-        <v>875.5973915434845</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.351417301975</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="E23" t="n">
-        <v>874.5766724602698</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>653.679430407228</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y23" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683665</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D25" t="n">
-        <v>443.5200532683665</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E25" t="n">
-        <v>273.7620495191038</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F25" t="n">
-        <v>97.05499548085996</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092379</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1162.919920107964</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041287</v>
+        <v>1092.291841223631</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2182.403674944107</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
         <v>47.20655154895474</v>
@@ -6232,7 +6232,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6247,7 +6247,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
@@ -6262,16 +6262,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2182.403674944107</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.403674944107</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X26" t="n">
-        <v>2182.403674944107</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="Y26" t="n">
-        <v>2182.403674944107</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="27">
@@ -6366,7 +6366,7 @@
         <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
-        <v>277.6420604698897</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
         <v>223.9136055871985</v>
@@ -6390,7 +6390,7 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M28" t="n">
         <v>1066.127311827553</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="W29" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X29" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.200554108492</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D31" t="n">
-        <v>277.6420604698897</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E31" t="n">
-        <v>107.8840567206269</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>358.0754347909399</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092378</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2303.795414797534</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1893.561637177626</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C32" t="n">
-        <v>1455.41916436105</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D32" t="n">
-        <v>1019.509379535494</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E32" t="n">
-        <v>585.7346346937893</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>157.867205102997</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895474</v>
@@ -6697,16 +6697,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,7 +6721,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2091.419088811864</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>1728.802138745691</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>1728.802138745691</v>
       </c>
       <c r="X32" t="n">
-        <v>2319.861207662534</v>
+        <v>1309.659675325001</v>
       </c>
       <c r="Y32" t="n">
-        <v>2319.861207662534</v>
+        <v>901.3735516246547</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>471.655226289377</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D34" t="n">
-        <v>471.655226289377</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E34" t="n">
-        <v>471.655226289377</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6870,10 +6870,10 @@
         <v>1329.17407462327</v>
       </c>
       <c r="N34" t="n">
-        <v>1898.931789584804</v>
+        <v>1456.672986427159</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1552.388803007394</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C35" t="n">
-        <v>1552.388803007394</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="D35" t="n">
-        <v>1116.479018181838</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="E35" t="n">
-        <v>682.7042733401333</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F35" t="n">
-        <v>254.8368437493411</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G35" t="n">
-        <v>254.8368437493411</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O35" t="n">
         <v>1775.96950697326</v>
@@ -6958,31 +6958,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.244257596361</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.388803007394</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="X35" t="n">
-        <v>1552.388803007394</v>
+        <v>893.635148065878</v>
       </c>
       <c r="Y35" t="n">
-        <v>1552.388803007394</v>
+        <v>485.3490243655314</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.196554659879</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>856.6348431431041</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>690.7568503446269</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113488</v>
+        <v>718.6204178572116</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.853003145054</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>1965.853003145054</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1693.826598731346</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.434844064758</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>1221.015173378866</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C38" t="n">
         <v>1344.758510807007</v>
@@ -7171,19 +7171,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>2108.089956131646</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X38" t="n">
-        <v>2108.089956131646</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7362,22 +7362,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2058.383717873402</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1779.997085922144</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1493.041577792575</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1221.015173378866</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1221.015173378866</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1580.208008741915</v>
+        <v>703.5160999904168</v>
       </c>
       <c r="C41" t="n">
-        <v>1580.208008741915</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D41" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2347.680413397055</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1985.063463330882</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W41" t="n">
-        <v>1580.208008741915</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X41" t="n">
-        <v>1580.208008741915</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.208008741915</v>
+        <v>1129.815670475325</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.353309902451</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C43" t="n">
-        <v>389.7915983856759</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D43" t="n">
-        <v>223.9136055871985</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,16 +7572,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1125.042789823888</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527957</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2306.599122565046</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2064.351898468452</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1785.965266517195</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.009758387626</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W43" t="n">
-        <v>1226.983353973917</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5915993073299</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y43" t="n">
-        <v>754.1719286214382</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1486.402314586987</v>
+        <v>1699.803832431299</v>
       </c>
       <c r="C44" t="n">
-        <v>1048.25984177041</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D44" t="n">
-        <v>1048.25984177041</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.25984177041</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586987</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X44" t="n">
-        <v>1486.402314586987</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.402314586987</v>
+        <v>1699.803832431299</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.2907825224202</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C46" t="n">
-        <v>724.2907825224202</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D46" t="n">
-        <v>558.4127897239429</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E46" t="n">
-        <v>388.6547859746801</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F46" t="n">
         <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>358.0754347909403</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092383</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O46" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.191365816744667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.337840299480829</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.6222042310422715</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.907001885183226</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.923123287322517</v>
+        <v>2.923123287322519</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2.553887988239082</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.375249808503934</v>
+        <v>2.681898459715345</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.860536639450492</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>18.14248094456013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>29.93886192899843</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>34.45295969778793</v>
+        <v>34.45295969778792</v>
       </c>
       <c r="L7" t="n">
-        <v>32.53395007869803</v>
+        <v>32.53395007869804</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9116767238302828</v>
+        <v>32.05661388637267</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.994313840311776</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>18.31561076982815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>52.1464168155469</v>
+        <v>60.15774863203967</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.48037883089288</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.41724656032535</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.551917449542188</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>53.69285052776675</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>55.65285741390949</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.22786106140597</v>
+        <v>59.22786106140603</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>10.62967161639966</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032062</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>30.81754489126138</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>70.05088382580993</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>69.27619576520601</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>192.4544649334025</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042871</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M28" t="n">
         <v>458.1582657371571</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>69.27619576520598</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>158.2045317475395</v>
+        <v>253.9135309266337</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>263.8716243249375</v>
       </c>
       <c r="N37" t="n">
-        <v>175.717976403207</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1920849464598</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>419.0018357134411</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.27619576520644</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>30.88739499768407</v>
+        <v>30.49849916615064</v>
       </c>
       <c r="D2" t="n">
         <v>28.28813805503963</v>
@@ -22558,7 +22558,7 @@
         <v>26.17444847102748</v>
       </c>
       <c r="F2" t="n">
-        <v>20.32620637262405</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>12.07738569575555</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.1322645779586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.706273268574137</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>133.3808763442455</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>145.3425294405764</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>228.9184439736626</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>122.5445445276281</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.90628618664698</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.84521004236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>150.6033542052177</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.281626929516278</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>89.791102776944</v>
       </c>
       <c r="E19" t="n">
-        <v>82.91154299085191</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.16581995397553</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>100.099491997078</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9.947034240629165</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7438090910202</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>149.8919690415845</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>62.12385027915576</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>155.2236758835431</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24502,16 +24502,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>222.907823174269</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>287.5636794512648</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>209.375027459659</v>
+        <v>103.0399300069052</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>87.01543208710666</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>285.9536173888157</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24973,19 +24973,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>30.32228690153801</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.11437420552782</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>61.47034666314619</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>228.9184439736612</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.02677463308561</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>267.8799620385234</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>272.4428437226466</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.26617968036123</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>95.17038620779485</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>83.882603987843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>207.6033504262478</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>243.959292153526</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>32.75144145875319</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>89.79110277694367</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>48.33684669439168</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>95.07799832448967</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.1269275599053</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>246.0053115744596</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>379610.6910153399</v>
+        <v>379610.6910153398</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>379610.6910153399</v>
+        <v>379610.6910153397</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>379610.6910153399</v>
+        <v>379610.6910153397</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>379610.6910153398</v>
+        <v>379610.6910153399</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>379610.6910153399</v>
+        <v>379610.69101534</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>379610.6910153398</v>
+        <v>379610.6910153399</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379610.6910153398</v>
+        <v>379610.6910153399</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>379610.6910153398</v>
+        <v>379610.6910153399</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.3919342448</v>
       </c>
       <c r="E2" t="n">
-        <v>188757.0855609808</v>
+        <v>188757.0855609807</v>
       </c>
       <c r="F2" t="n">
         <v>188757.0855609807</v>
       </c>
       <c r="G2" t="n">
-        <v>188757.0855609808</v>
+        <v>188757.0855609807</v>
       </c>
       <c r="H2" t="n">
         <v>188757.0855609808</v>
       </c>
       <c r="I2" t="n">
-        <v>188757.0855609807</v>
+        <v>188757.0855609808</v>
       </c>
       <c r="J2" t="n">
         <v>188757.0855609808</v>
       </c>
       <c r="K2" t="n">
+        <v>188757.0855609808</v>
+      </c>
+      <c r="L2" t="n">
         <v>188757.0855609807</v>
-      </c>
-      <c r="L2" t="n">
-        <v>188757.0855609808</v>
       </c>
       <c r="M2" t="n">
         <v>188757.0855609808</v>
       </c>
       <c r="N2" t="n">
-        <v>188757.0855609808</v>
+        <v>188757.0855609809</v>
       </c>
       <c r="O2" t="n">
-        <v>188757.0855609808</v>
+        <v>188757.0855609807</v>
       </c>
       <c r="P2" t="n">
-        <v>188757.0855609808</v>
+        <v>188757.0855609807</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3658.813870389771</v>
+        <v>3658.813870389761</v>
       </c>
       <c r="C3" t="n">
-        <v>39694.34694747528</v>
+        <v>39694.34694747527</v>
       </c>
       <c r="D3" t="n">
-        <v>25642.93946003402</v>
+        <v>25642.93946003411</v>
       </c>
       <c r="E3" t="n">
-        <v>488243.5714067373</v>
+        <v>488243.5714067371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>853.6263502158973</v>
+        <v>853.626350215868</v>
       </c>
       <c r="K3" t="n">
-        <v>9793.484013311736</v>
+        <v>9793.484013311734</v>
       </c>
       <c r="L3" t="n">
-        <v>6569.772812065561</v>
+        <v>6569.772812065584</v>
       </c>
       <c r="M3" t="n">
-        <v>130286.03087968</v>
+        <v>130286.0308796799</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>298377.325830092</v>
       </c>
       <c r="C4" t="n">
-        <v>294577.6699288963</v>
+        <v>294577.6699288964</v>
       </c>
       <c r="D4" t="n">
         <v>287408.8161921846</v>
       </c>
       <c r="E4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="F4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="G4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="H4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="I4" t="n">
+        <v>18294.04639895363</v>
+      </c>
+      <c r="J4" t="n">
         <v>18294.04639895361</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18294.04639895362</v>
       </c>
       <c r="K4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="L4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="M4" t="n">
         <v>18294.04639895362</v>
@@ -26456,10 +26456,10 @@
         <v>18294.04639895362</v>
       </c>
       <c r="O4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="P4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>36853.56981021012</v>
       </c>
       <c r="D5" t="n">
-        <v>38879.31235789482</v>
+        <v>38879.31235789483</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="H5" t="n">
+        <v>46051.0812096378</v>
+      </c>
+      <c r="I5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="G5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="H5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963782</v>
@@ -26502,7 +26502,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21284.65811925811</v>
+        <v>-21314.04523808801</v>
       </c>
       <c r="C6" t="n">
-        <v>-49437.19475233675</v>
+        <v>-49437.19475233681</v>
       </c>
       <c r="D6" t="n">
-        <v>-30242.6760758684</v>
+        <v>-30242.67607586876</v>
       </c>
       <c r="E6" t="n">
-        <v>-363831.6134543479</v>
+        <v>-364385.4938975697</v>
       </c>
       <c r="F6" t="n">
-        <v>124411.9579523893</v>
+        <v>123858.0775091673</v>
       </c>
       <c r="G6" t="n">
-        <v>124411.9579523894</v>
+        <v>123858.0775091674</v>
       </c>
       <c r="H6" t="n">
-        <v>124411.9579523893</v>
+        <v>123858.0775091674</v>
       </c>
       <c r="I6" t="n">
-        <v>124411.9579523893</v>
+        <v>123858.0775091675</v>
       </c>
       <c r="J6" t="n">
-        <v>123558.3316021734</v>
+        <v>123004.4511589515</v>
       </c>
       <c r="K6" t="n">
-        <v>114618.4739390776</v>
+        <v>114064.5934958557</v>
       </c>
       <c r="L6" t="n">
-        <v>117842.1851403238</v>
+        <v>117288.3046971018</v>
       </c>
       <c r="M6" t="n">
-        <v>-5874.072927290603</v>
+        <v>-6427.953370512486</v>
       </c>
       <c r="N6" t="n">
-        <v>124411.9579523894</v>
+        <v>123858.0775091675</v>
       </c>
       <c r="O6" t="n">
-        <v>124411.9579523894</v>
+        <v>123858.0775091674</v>
       </c>
       <c r="P6" t="n">
-        <v>124411.9579523894</v>
+        <v>123858.0775091674</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="D3" t="n">
-        <v>53.28004458765894</v>
+        <v>53.28004458765901</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>67.27314779414245</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="E4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="G4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="I4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="H4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619342</v>
@@ -26822,7 +26822,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26831,7 +26831,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.662332998740292</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="C3" t="n">
         <v>30.09076906183131</v>
       </c>
       <c r="D3" t="n">
-        <v>20.52694252708734</v>
+        <v>20.52694252708741</v>
       </c>
       <c r="E3" t="n">
-        <v>413.4218835055622</v>
+        <v>413.4218835055621</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C4" t="n">
-        <v>38.05245412526708</v>
+        <v>38.05245412526707</v>
       </c>
       <c r="D4" t="n">
-        <v>25.95814474661509</v>
+        <v>25.95814474661518</v>
       </c>
       <c r="E4" t="n">
-        <v>522.8087465677918</v>
+        <v>522.8087465677914</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260389</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526708</v>
+        <v>38.05245412526707</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95814474661509</v>
+        <v>25.95814474661518</v>
       </c>
       <c r="M4" t="n">
-        <v>522.8087465677918</v>
+        <v>522.8087465677916</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="K4" t="n">
-        <v>38.05245412526708</v>
+        <v>38.05245412526707</v>
       </c>
       <c r="L4" t="n">
-        <v>25.95814474661509</v>
+        <v>25.95814474661518</v>
       </c>
       <c r="M4" t="n">
-        <v>522.8087465677918</v>
+        <v>522.8087465677914</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8283131467052</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>102.5182434609973</v>
       </c>
       <c r="D3" t="n">
-        <v>90.876837042652</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>79.28745107773972</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
         <v>84.52551230889576</v>
       </c>
       <c r="H3" t="n">
-        <v>41.26298946135317</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.71451543789636</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8537753079323</v>
+        <v>125.591226385672</v>
       </c>
       <c r="U3" t="n">
         <v>174.5728047847957</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>122.3472683378446</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>167.573545479347</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.72522696250731</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S4" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T4" t="n">
-        <v>240.1375899775377</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U4" t="n">
-        <v>272.7747557798793</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27602,10 +27602,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>240.0641840291948</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>221.8829250567725</v>
       </c>
     </row>
     <row r="5">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.70060738470343</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>64.07689350419679</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>43.14578572036749</v>
@@ -27779,7 +27779,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>146.3769153205092</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27791,10 +27791,10 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
-        <v>96.66302601383404</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
-        <v>44.68216206888224</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>138.7773509625391</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T7" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6454491228296</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.66132681736131</v>
+        <v>77.93447461150376</v>
       </c>
       <c r="T8" t="n">
         <v>216.928933166516</v>
@@ -27915,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>366.5347796614786</v>
+        <v>351.5837408749959</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>347.6778909923399</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -27949,7 +27949,7 @@
         <v>84.41663647642147</v>
       </c>
       <c r="H9" t="n">
-        <v>40.21147813193055</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>60.69219460224475</v>
       </c>
       <c r="T9" t="n">
-        <v>128.414929298968</v>
+        <v>109.3722188538178</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5656419010803</v>
+        <v>107.2924941069378</v>
       </c>
       <c r="V9" t="n">
-        <v>137.87215418154</v>
+        <v>129.8531949644781</v>
       </c>
       <c r="W9" t="n">
-        <v>116.1963789299955</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>86.04561360936636</v>
+        <v>86.04561360936627</v>
       </c>
       <c r="Y9" t="n">
-        <v>57.94777363442897</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.6272847376548</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>103.5629466074648</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>96.94606507635</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>100.7872759176276</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>132.5693871740926</v>
       </c>
       <c r="G10" t="n">
         <v>163.839283455502</v>
@@ -28031,7 +28031,7 @@
         <v>137.6489249664189</v>
       </c>
       <c r="I10" t="n">
-        <v>17.61085132424084</v>
+        <v>84.88399911838329</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>243.0101335809981</v>
       </c>
       <c r="U10" t="n">
-        <v>208.3702822851599</v>
+        <v>275.6434300793023</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -28079,7 +28079,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.7748776552641</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -31047,10 +31047,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313975</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817443</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K2" t="n">
         <v>1.361442175632203</v>
@@ -31059,10 +31059,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397211</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237094</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O2" t="n">
         <v>1.803309182076396</v>
@@ -31074,16 +31074,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497281</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S2" t="n">
-        <v>0.243891108377063</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04685170935471608</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008562276980873292</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0057265275821961</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05530620059647287</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I3" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5410312747723079</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9247086227794465</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L3" t="n">
         <v>1.243384859458851</v>
@@ -31150,19 +31150,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975232</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770527</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S3" t="n">
-        <v>0.106367738204388</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T3" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04268461758636077</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1443770091775883</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3394256349377581</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K4" t="n">
-        <v>0.55778058563772</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819465</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7525673425783417</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425469</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559683</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5806504625449316</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4020122828097841</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R4" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08366708784565799</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02051305753127765</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2141911340207393</v>
+        <v>0.2141911340207396</v>
       </c>
       <c r="H8" t="n">
-        <v>2.193584951289897</v>
+        <v>2.1935849512899</v>
       </c>
       <c r="I8" t="n">
-        <v>8.257603694334559</v>
+        <v>8.25760369433457</v>
       </c>
       <c r="J8" t="n">
-        <v>18.17920476109274</v>
+        <v>18.17920476109276</v>
       </c>
       <c r="K8" t="n">
-        <v>27.24591546419063</v>
+        <v>27.24591546419067</v>
       </c>
       <c r="L8" t="n">
-        <v>33.80096738197784</v>
+        <v>33.80096738197788</v>
       </c>
       <c r="M8" t="n">
-        <v>37.61008896161916</v>
+        <v>37.61008896161921</v>
       </c>
       <c r="N8" t="n">
-        <v>38.21865952115559</v>
+        <v>38.21865952115564</v>
       </c>
       <c r="O8" t="n">
-        <v>36.08879643223686</v>
+        <v>36.08879643223691</v>
       </c>
       <c r="P8" t="n">
-        <v>30.80095281109986</v>
+        <v>30.8009528110999</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.13023282398212</v>
+        <v>23.13023282398215</v>
       </c>
       <c r="R8" t="n">
-        <v>13.45468382243028</v>
+        <v>13.45468382243029</v>
       </c>
       <c r="S8" t="n">
-        <v>4.880880466497601</v>
+        <v>4.880880466497608</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9376216891757867</v>
+        <v>0.9376216891757879</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01713529072165914</v>
+        <v>0.01713529072165916</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1146023600564739</v>
+        <v>0.1146023600564741</v>
       </c>
       <c r="H9" t="n">
-        <v>1.106817530019104</v>
+        <v>1.106817530019105</v>
       </c>
       <c r="I9" t="n">
-        <v>3.945739151067195</v>
+        <v>3.945739151067201</v>
       </c>
       <c r="J9" t="n">
-        <v>10.82740981568643</v>
+        <v>10.82740981568644</v>
       </c>
       <c r="K9" t="n">
-        <v>18.50576793947018</v>
+        <v>18.50576793947021</v>
       </c>
       <c r="L9" t="n">
-        <v>24.88328874822694</v>
+        <v>24.88328874822697</v>
       </c>
       <c r="M9" t="n">
-        <v>29.03762430027411</v>
+        <v>29.03762430027415</v>
       </c>
       <c r="N9" t="n">
-        <v>29.8061638113546</v>
+        <v>29.80616381135464</v>
       </c>
       <c r="O9" t="n">
-        <v>27.26681678062957</v>
+        <v>27.2668167806296</v>
       </c>
       <c r="P9" t="n">
-        <v>21.8840243514858</v>
+        <v>21.88402435148583</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.62889073282289</v>
+        <v>14.6288907328229</v>
       </c>
       <c r="R9" t="n">
-        <v>7.115399162102832</v>
+        <v>7.115399162102841</v>
       </c>
       <c r="S9" t="n">
-        <v>2.128688573855995</v>
+        <v>2.128688573855998</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4619279337364013</v>
+        <v>0.461927933736402</v>
       </c>
       <c r="U9" t="n">
-        <v>0.007539628951083815</v>
+        <v>0.007539628951083825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09607876892856528</v>
+        <v>0.09607876892856541</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8542276001103356</v>
+        <v>0.8542276001103367</v>
       </c>
       <c r="I10" t="n">
-        <v>2.889350614688128</v>
+        <v>2.889350614688132</v>
       </c>
       <c r="J10" t="n">
-        <v>6.792768963249565</v>
+        <v>6.792768963249574</v>
       </c>
       <c r="K10" t="n">
-        <v>11.16260606279149</v>
+        <v>11.16260606279151</v>
       </c>
       <c r="L10" t="n">
-        <v>14.28429260961597</v>
+        <v>14.28429260961599</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06078375122955</v>
+        <v>15.06078375122957</v>
       </c>
       <c r="N10" t="n">
-        <v>14.70267197613219</v>
+        <v>14.70267197613221</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58029726637576</v>
+        <v>13.58029726637578</v>
       </c>
       <c r="P10" t="n">
-        <v>11.62029038023302</v>
+        <v>11.62029038023303</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.045286732736498</v>
+        <v>8.045286732736511</v>
       </c>
       <c r="R10" t="n">
-        <v>4.320050828369852</v>
+        <v>4.320050828369858</v>
       </c>
       <c r="S10" t="n">
-        <v>1.674390909418723</v>
+        <v>1.674390909418726</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4105183763311425</v>
+        <v>0.410518376331143</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005240660123376294</v>
+        <v>0.005240660123376301</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
         <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,34 +32545,34 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646698</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -32581,10 +32581,10 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -33037,10 +33037,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9083906948817447</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K2" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L2" t="n">
-        <v>1.688989405823955</v>
+        <v>1.688989405823956</v>
       </c>
       <c r="M2" t="n">
-        <v>1.879326147397209</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N2" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O2" t="n">
-        <v>1.803309182076395</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P2" t="n">
-        <v>1.539082665869758</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.155786985397851</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6723126642497288</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J3" t="n">
-        <v>1.732397091516975</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K3" t="n">
-        <v>3.262548922260275</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L3" t="n">
         <v>1.243384859458851</v>
@@ -34792,16 +34792,16 @@
         <v>1.489374382002836</v>
       </c>
       <c r="O3" t="n">
-        <v>1.362486586628911</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P3" t="n">
-        <v>1.093515604709008</v>
+        <v>1.09351560470901</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7309862225975223</v>
+        <v>1.353190453639796</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3555470370770522</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.262548922260275</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5577805856377203</v>
+        <v>3.111668573876802</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7137671124819462</v>
+        <v>0.7137671124819471</v>
       </c>
       <c r="M4" t="n">
         <v>0.7525673425783417</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7346729732425468</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559694</v>
       </c>
       <c r="P4" t="n">
-        <v>2.955900271048865</v>
+        <v>3.262548922260278</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.262548922260276</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34950,16 +34950,16 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
       </c>
       <c r="R5" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.75252608797635</v>
+        <v>20.56806444621567</v>
       </c>
       <c r="J6" t="n">
         <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
-        <v>11.37614111852891</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L6" t="n">
         <v>15.29662563687356</v>
@@ -35038,7 +35038,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>26.12848436996845</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>4.175752044673201</v>
+      </c>
+      <c r="K7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="M7" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L7" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10.17006588498498</v>
-      </c>
       <c r="N7" t="n">
-        <v>9.038245360419694</v>
+        <v>15.03255920073147</v>
       </c>
       <c r="O7" t="n">
         <v>8.348282472750299</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.844982215203162</v>
+        <v>7.844982215203173</v>
       </c>
       <c r="J8" t="n">
-        <v>18.17920476109274</v>
+        <v>18.17920476109276</v>
       </c>
       <c r="K8" t="n">
-        <v>27.24591546419063</v>
+        <v>27.24591546419067</v>
       </c>
       <c r="L8" t="n">
-        <v>33.80096738197783</v>
+        <v>33.80096738197788</v>
       </c>
       <c r="M8" t="n">
-        <v>37.61008896161917</v>
+        <v>37.61008896161923</v>
       </c>
       <c r="N8" t="n">
-        <v>38.21865952115559</v>
+        <v>38.21865952115564</v>
       </c>
       <c r="O8" t="n">
-        <v>36.08879643223688</v>
+        <v>36.0887964322369</v>
       </c>
       <c r="P8" t="n">
-        <v>30.80095281109985</v>
+        <v>30.8009528110999</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.13023282398211</v>
+        <v>23.13023282398214</v>
       </c>
       <c r="R8" t="n">
         <v>13.4546838224303</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>30.27268173738801</v>
+        <v>22.26134992089536</v>
       </c>
       <c r="J9" t="n">
-        <v>10.82740981568643</v>
+        <v>10.82740981568644</v>
       </c>
       <c r="K9" t="n">
-        <v>18.50576793947019</v>
+        <v>18.5057679394702</v>
       </c>
       <c r="L9" t="n">
-        <v>24.88328874822695</v>
+        <v>24.88328874822697</v>
       </c>
       <c r="M9" t="n">
-        <v>29.03762430027412</v>
+        <v>29.03762430027415</v>
       </c>
       <c r="N9" t="n">
-        <v>29.80616381135459</v>
+        <v>29.80616381135464</v>
       </c>
       <c r="O9" t="n">
-        <v>27.26681678062957</v>
+        <v>27.2668167806296</v>
       </c>
       <c r="P9" t="n">
-        <v>21.88402435148581</v>
+        <v>21.88402435148583</v>
       </c>
       <c r="Q9" t="n">
         <v>14.6288907328229</v>
       </c>
       <c r="R9" t="n">
-        <v>59.26181597764972</v>
+        <v>67.27314779414252</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>67.27314779414245</v>
+        <v>6.792768963249574</v>
       </c>
       <c r="K10" t="n">
-        <v>62.57985262311685</v>
+        <v>11.16260606279151</v>
       </c>
       <c r="L10" t="n">
-        <v>14.28429260961596</v>
+        <v>14.28429260961599</v>
       </c>
       <c r="M10" t="n">
-        <v>15.06078375122956</v>
+        <v>15.06078375122957</v>
       </c>
       <c r="N10" t="n">
-        <v>14.70267197613219</v>
+        <v>17.2545894256744</v>
       </c>
       <c r="O10" t="n">
-        <v>13.58029726637577</v>
+        <v>67.27314779414253</v>
       </c>
       <c r="P10" t="n">
-        <v>11.62029038023303</v>
+        <v>67.27314779414252</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.27314779414246</v>
+        <v>67.27314779414252</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35503,7 +35503,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>142.5533002411769</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030946</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
@@ -35588,7 +35588,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35661,13 +35661,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>128.5954242524313</v>
       </c>
       <c r="L16" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>198.8376634256983</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35889,19 +35889,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994726</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35977,7 +35977,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646698</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409511</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>294.241390365406</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409517</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M28" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>167.0540751263759</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,13 +37068,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37238,13 +37238,13 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>277.1599674523495</v>
+        <v>372.8689666314435</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>395.7952529497147</v>
       </c>
       <c r="N37" t="n">
-        <v>304.5047560030955</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
@@ -37484,7 +37484,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,25 +37545,25 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712369</v>
+        <v>324.3780935581794</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37785,10 +37785,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>537.9572714182509</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38025,7 +38025,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
